--- a/output/table/Ohtani_bat_byMonth.xlsx
+++ b/output/table/Ohtani_bat_byMonth.xlsx
@@ -8,19 +8,60 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easyu\ohtani_analyze\output\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{21D51E3A-2894-4F2F-AD8E-C5373812DAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{12F2E52D-2397-4CAB-B050-CB81439193F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ohtani_bat_byMonth" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+  <si>
+    <t>game_month</t>
+  </si>
+  <si>
+    <t>pitches</t>
+  </si>
+  <si>
+    <t>Fastball_pct</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>CStr</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>foul_pct</t>
+  </si>
+  <si>
+    <t>exit_velo</t>
+  </si>
+  <si>
+    <t>launch_angle</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
   <si>
     <t>BABIP</t>
   </si>
@@ -29,6 +70,18 @@
   </si>
   <si>
     <t>xwOBA</t>
+  </si>
+  <si>
+    <t>flare</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>barrelperPA</t>
+  </si>
+  <si>
+    <t>shifted</t>
   </si>
   <si>
     <t>月</t>
@@ -39,8 +92,11 @@
   </si>
   <si>
     <t>被投球数</t>
-    <rPh sb="0" eb="4">
-      <t>ヒトウキュウスウ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>トウキュウスウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -61,25 +117,23 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Chase%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Contact%</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ファウル%</t>
+    <t>Exit Velocity (km/h)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>打球速度</t>
-    <rPh sb="0" eb="4">
-      <t>ダキュウソクド</t>
-    </rPh>
+    <t>Launch Angle (°)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>打球角度</t>
-    <rPh sb="0" eb="4">
-      <t>ダキュウカクド</t>
-    </rPh>
+    <t>Pull%</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -87,19 +141,27 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>xwOBA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>wOBA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Barrel/PA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Flare%</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Barrel%</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Flare%</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Barrel/PA</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>シフト</t>
+    <t>Shifted%</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -108,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode=".000"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode=".000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +333,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,24 +525,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -589,10 +666,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,18 +679,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,44 +812,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,75 +1216,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>371</v>
+      </c>
+      <c r="C2">
+        <v>47.44</v>
+      </c>
+      <c r="D2">
+        <v>45.3</v>
+      </c>
+      <c r="E2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2">
+        <v>53.1</v>
+      </c>
+      <c r="G2">
+        <v>29.6</v>
+      </c>
+      <c r="H2">
+        <v>68.5</v>
+      </c>
+      <c r="I2">
+        <v>48.1</v>
+      </c>
+      <c r="J2">
+        <v>147</v>
+      </c>
+      <c r="K2">
+        <v>16.3</v>
+      </c>
+      <c r="L2">
+        <v>44.6</v>
+      </c>
+      <c r="M2">
+        <v>53.8</v>
+      </c>
+      <c r="N2">
+        <v>0.316</v>
+      </c>
+      <c r="O2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.379</v>
+      </c>
+      <c r="Q2">
+        <v>15.9</v>
+      </c>
+      <c r="R2">
+        <v>23.8</v>
+      </c>
+      <c r="S2">
+        <v>15.5</v>
+      </c>
+      <c r="T2">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>430</v>
+      </c>
+      <c r="C3">
+        <v>54.42</v>
+      </c>
+      <c r="D3">
+        <v>46.7</v>
+      </c>
+      <c r="E3">
+        <v>15.3</v>
+      </c>
+      <c r="F3">
+        <v>48.4</v>
+      </c>
+      <c r="G3">
+        <v>28.4</v>
+      </c>
+      <c r="H3">
+        <v>67.3</v>
+      </c>
+      <c r="I3">
+        <v>52.9</v>
+      </c>
+      <c r="J3">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="K3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L3">
+        <v>35.5</v>
+      </c>
+      <c r="M3">
+        <v>61.3</v>
+      </c>
+      <c r="N3">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.375</v>
+      </c>
+      <c r="Q3">
+        <v>17.7</v>
+      </c>
+      <c r="R3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S3">
+        <v>11.1</v>
+      </c>
+      <c r="T3">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>412</v>
+      </c>
+      <c r="C4">
+        <v>48.54</v>
+      </c>
+      <c r="D4">
+        <v>41.5</v>
+      </c>
+      <c r="E4">
+        <v>14.3</v>
+      </c>
+      <c r="F4">
+        <v>43.7</v>
+      </c>
+      <c r="G4">
+        <v>25.7</v>
+      </c>
+      <c r="H4">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="I4">
+        <v>52.5</v>
+      </c>
+      <c r="J4">
+        <v>154.4</v>
+      </c>
+      <c r="K4">
+        <v>14.1</v>
+      </c>
+      <c r="L4">
+        <v>63</v>
+      </c>
+      <c r="M4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="N4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.52</v>
+      </c>
+      <c r="P4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="R4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>431</v>
+      </c>
+      <c r="C5">
+        <v>41.76</v>
+      </c>
+      <c r="D5">
+        <v>42.9</v>
+      </c>
+      <c r="E5">
+        <v>15.8</v>
+      </c>
+      <c r="F5">
+        <v>44.1</v>
+      </c>
+      <c r="G5">
+        <v>28.9</v>
+      </c>
+      <c r="H5">
+        <v>64.7</v>
+      </c>
+      <c r="I5">
+        <v>56.1</v>
+      </c>
+      <c r="J5">
+        <v>151</v>
+      </c>
+      <c r="K5">
+        <v>21.6</v>
+      </c>
+      <c r="L5">
+        <v>47.9</v>
+      </c>
+      <c r="M5">
+        <v>54.2</v>
+      </c>
+      <c r="N5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.436</v>
+      </c>
+      <c r="P5">
+        <v>0.437</v>
+      </c>
+      <c r="Q5">
+        <v>22.9</v>
+      </c>
+      <c r="R5">
+        <v>27.1</v>
+      </c>
+      <c r="S5">
+        <v>13.3</v>
+      </c>
+      <c r="T5">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>484</v>
+      </c>
+      <c r="C6">
+        <v>49.38</v>
+      </c>
+      <c r="D6">
+        <v>43.2</v>
+      </c>
+      <c r="E6">
+        <v>16.5</v>
+      </c>
+      <c r="F6">
+        <v>44.8</v>
+      </c>
+      <c r="G6">
+        <v>28.1</v>
+      </c>
+      <c r="H6">
+        <v>67.3</v>
+      </c>
+      <c r="I6">
+        <v>55.5</v>
+      </c>
+      <c r="J6">
+        <v>152.1</v>
+      </c>
+      <c r="K6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L6">
+        <v>58.3</v>
+      </c>
+      <c r="M6">
+        <v>58.3</v>
+      </c>
+      <c r="N6">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>20.3</v>
+      </c>
+      <c r="R6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>419</v>
+      </c>
+      <c r="C7">
+        <v>52.98</v>
+      </c>
+      <c r="D7">
+        <v>41.8</v>
+      </c>
+      <c r="E7">
+        <v>12.6</v>
+      </c>
+      <c r="F7">
+        <v>43.4</v>
+      </c>
+      <c r="G7">
+        <v>23.8</v>
+      </c>
+      <c r="H7">
+        <v>69.2</v>
+      </c>
+      <c r="I7">
+        <v>53.2</v>
+      </c>
+      <c r="J7">
+        <v>147.1</v>
+      </c>
+      <c r="K7">
+        <v>9.5</v>
+      </c>
+      <c r="L7">
+        <v>60.7</v>
+      </c>
+      <c r="M7">
+        <v>55.4</v>
+      </c>
+      <c r="N7">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>25.5</v>
+      </c>
+      <c r="R7">
+        <v>12.7</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>53.19</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>31.9</v>
+      </c>
+      <c r="G8">
+        <v>22.6</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>44.4</v>
+      </c>
+      <c r="J8">
+        <v>155.5</v>
+      </c>
+      <c r="K8">
+        <v>28.8</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.34</v>
+      </c>
+      <c r="P8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="10" t="s">
+    <row r="1" spans="1:13" ht="54.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>17</v>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1215,393 +1796,523 @@
         <v>371</v>
       </c>
       <c r="C2" s="2">
-        <v>47.44</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2">
-        <v>45.3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10.199999999999999</v>
+        <v>16.3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>44.6</v>
       </c>
       <c r="F2" s="2">
-        <v>53.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>68.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>48.1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>91.3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="K2" s="2">
         <v>53.8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="G2" s="7">
         <v>0.316</v>
       </c>
-      <c r="M2" s="3">
+      <c r="H2" s="7">
         <v>0.41299999999999998</v>
       </c>
-      <c r="N2" s="3">
+      <c r="I2" s="7">
         <v>0.379</v>
       </c>
-      <c r="O2" s="2">
+      <c r="J2" s="12">
         <v>15.9</v>
       </c>
-      <c r="P2" s="2">
+      <c r="K2" s="10">
         <v>23.8</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="L2" s="10">
         <v>15.5</v>
       </c>
-      <c r="R2" s="2">
+      <c r="M2" s="14">
         <v>72.3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>430</v>
       </c>
-      <c r="C3" s="5">
-        <v>54.42</v>
-      </c>
-      <c r="D3" s="5">
-        <v>46.7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>15.3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>48.4</v>
-      </c>
-      <c r="G3" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="H3" s="5">
-        <v>52.9</v>
-      </c>
-      <c r="I3" s="5">
-        <v>92.6</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="C3" s="2">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="D3" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="K3" s="12">
+      <c r="E3" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="F3" s="2">
         <v>61.3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="G3" s="7">
         <v>0.29599999999999999</v>
       </c>
-      <c r="M3" s="6">
+      <c r="H3" s="7">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N3" s="6">
+      <c r="I3" s="7">
         <v>0.375</v>
       </c>
-      <c r="O3" s="5">
+      <c r="J3" s="12">
         <v>17.7</v>
       </c>
-      <c r="P3" s="5">
+      <c r="K3" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="L3" s="10">
         <v>11.1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="M3" s="14">
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>412</v>
       </c>
-      <c r="C4" s="5">
-        <v>48.54</v>
-      </c>
-      <c r="D4" s="5">
-        <v>41.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43.7</v>
-      </c>
-      <c r="G4" s="5">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="H4" s="5">
-        <v>52.5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>95.9</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="C4" s="2">
+        <v>154.4</v>
+      </c>
+      <c r="D4" s="2">
         <v>14.1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="E4" s="10">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
         <v>79.599999999999994</v>
       </c>
-      <c r="L4" s="6">
+      <c r="G4" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="H4" s="7">
         <v>0.52</v>
       </c>
-      <c r="N4" s="6">
+      <c r="I4" s="7">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O4" s="5">
+      <c r="J4" s="12">
         <v>20.399999999999999</v>
       </c>
-      <c r="P4" s="5">
+      <c r="K4" s="10">
         <v>35.200000000000003</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="L4" s="10">
         <v>20</v>
       </c>
-      <c r="R4" s="5">
+      <c r="M4" s="14">
         <v>64.8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>431</v>
       </c>
-      <c r="C5" s="5">
-        <v>41.76</v>
-      </c>
-      <c r="D5" s="5">
-        <v>42.9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44.1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>64.7</v>
-      </c>
-      <c r="H5" s="5">
-        <v>56.1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>93.8</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="C5" s="2">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2">
         <v>21.6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="E5" s="10">
+        <v>47.9</v>
+      </c>
+      <c r="F5" s="2">
         <v>54.2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="G5" s="7">
         <v>0.38500000000000001</v>
       </c>
-      <c r="M5" s="6">
+      <c r="H5" s="7">
         <v>0.436</v>
       </c>
-      <c r="N5" s="6">
+      <c r="I5" s="7">
         <v>0.437</v>
       </c>
-      <c r="O5" s="5">
+      <c r="J5" s="12">
         <v>22.9</v>
       </c>
-      <c r="P5" s="5">
+      <c r="K5" s="10">
         <v>27.1</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="L5" s="10">
         <v>13.3</v>
       </c>
-      <c r="R5" s="5">
+      <c r="M5" s="14">
         <v>97.9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>484</v>
       </c>
-      <c r="C6" s="5">
-        <v>49.38</v>
-      </c>
-      <c r="D6" s="5">
-        <v>43.2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>16.5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44.8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>55.5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>94.5</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="C6" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="D6" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="E6" s="10">
         <v>58.3</v>
       </c>
-      <c r="L6" s="6">
+      <c r="F6" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.25900000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="H6" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="N6" s="6">
+      <c r="I6" s="7">
         <v>0.34200000000000003</v>
       </c>
-      <c r="O6" s="5">
+      <c r="J6" s="12">
         <v>20.3</v>
       </c>
-      <c r="P6" s="5">
+      <c r="K6" s="12">
         <v>16.899999999999999</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="L6" s="12">
         <v>9</v>
       </c>
-      <c r="R6" s="5">
+      <c r="M6" s="14">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>419</v>
       </c>
-      <c r="C7" s="5">
-        <v>52.98</v>
-      </c>
-      <c r="D7" s="5">
-        <v>41.8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>12.6</v>
-      </c>
-      <c r="F7" s="5">
-        <v>43.4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>69.2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>53.2</v>
-      </c>
-      <c r="I7" s="5">
-        <v>91.3</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="C7" s="2">
+        <v>147.1</v>
+      </c>
+      <c r="D7" s="12">
         <v>9.5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="E7" s="10">
+        <v>60.7</v>
+      </c>
+      <c r="F7" s="2">
         <v>55.4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="G7" s="7">
         <v>0.32100000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="H7" s="7">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N7" s="6">
+      <c r="I7" s="7">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O7" s="5">
+      <c r="J7" s="12">
         <v>25.5</v>
       </c>
-      <c r="P7" s="5">
+      <c r="K7" s="12">
         <v>12.7</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="L7" s="12">
         <v>7</v>
       </c>
-      <c r="R7" s="5">
+      <c r="M7" s="14">
         <v>96.4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>47</v>
       </c>
-      <c r="C8" s="8">
-        <v>53.19</v>
-      </c>
-      <c r="D8" s="8">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>31.9</v>
+      <c r="C8" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="E8" s="11">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4">
+        <v>60</v>
       </c>
       <c r="G8" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>44.4</v>
+        <v>0.34</v>
       </c>
       <c r="I8" s="8">
-        <v>96.6</v>
-      </c>
-      <c r="J8" s="8">
-        <v>28.8</v>
-      </c>
-      <c r="K8" s="8">
-        <v>60</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="N8" s="9">
         <v>0.48599999999999999</v>
       </c>
-      <c r="O8" s="8">
+      <c r="J8" s="13">
         <v>20</v>
       </c>
-      <c r="P8" s="8">
+      <c r="K8" s="4">
         <v>40</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="L8" s="4">
         <v>20</v>
       </c>
-      <c r="R8" s="8">
+      <c r="M8" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>371</v>
+      </c>
+      <c r="C2" s="2">
+        <v>47.44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>53.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>430</v>
+      </c>
+      <c r="C3" s="2">
+        <v>54.42</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>412</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48.54</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>431</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41.76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>484</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49.38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>419</v>
+      </c>
+      <c r="C7" s="2">
+        <v>52.98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4">
+        <v>53.19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="H8" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>